--- a/안드로이드 개발 SCHOOL 커리큘럼.xlsx
+++ b/안드로이드 개발 SCHOOL 커리큘럼.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Fast Campus 안드로이드 개발 1기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Fast Campus 안드로이드 개발 1기\Github test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +487,18 @@
         <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -500,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,23 +538,29 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -554,12 +572,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -846,7 +862,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H75" sqref="H75:K75"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -895,13 +911,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>42611</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="10"/>
@@ -937,16 +953,16 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="10"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="10"/>
@@ -964,17 +980,17 @@
       <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="10"/>
@@ -991,7 +1007,7 @@
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="10"/>
@@ -999,11 +1015,11 @@
       <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="10"/>
@@ -1020,12 +1036,12 @@
       <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="10"/>
@@ -1072,7 +1088,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="3">
@@ -1081,12 +1097,12 @@
       <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="15" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="10"/>
@@ -1106,12 +1122,12 @@
       <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="10"/>
@@ -1131,12 +1147,12 @@
       <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="15" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="10"/>
@@ -1156,7 +1172,7 @@
       <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="10"/>
@@ -1164,7 +1180,7 @@
       <c r="G12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="I12" s="10"/>
@@ -1183,12 +1199,12 @@
       <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="10"/>
@@ -1235,23 +1251,23 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="3">
         <v>42625</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
@@ -1260,15 +1276,15 @@
       <c r="B17" s="3">
         <v>42626</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
@@ -1277,15 +1293,15 @@
       <c r="B18" s="3">
         <v>42627</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
@@ -1294,15 +1310,15 @@
       <c r="B19" s="3">
         <v>42628</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
@@ -1311,15 +1327,15 @@
       <c r="B20" s="3">
         <v>42629</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
@@ -1358,7 +1374,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="3">
@@ -1367,12 +1383,12 @@
       <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="10"/>
@@ -1392,7 +1408,7 @@
       <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="10"/>
@@ -1400,7 +1416,7 @@
       <c r="G24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="14" t="s">
         <v>53</v>
       </c>
       <c r="I24" s="10"/>
@@ -1419,12 +1435,12 @@
       <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="14" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="10"/>
@@ -1446,7 +1462,7 @@
       <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="10"/>
@@ -1454,7 +1470,7 @@
       <c r="G26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="15" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="10"/>
@@ -1473,12 +1489,12 @@
       <c r="C27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="15" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="10"/>
@@ -1527,7 +1543,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="3">
@@ -1536,12 +1552,12 @@
       <c r="C30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="14" t="s">
         <v>61</v>
       </c>
       <c r="H30" s="10"/>
@@ -1561,7 +1577,7 @@
       <c r="C31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="10"/>
@@ -1569,7 +1585,7 @@
       <c r="G31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="14" t="s">
         <v>63</v>
       </c>
       <c r="I31" s="10"/>
@@ -1588,12 +1604,12 @@
       <c r="C32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H32" s="10"/>
@@ -1615,7 +1631,7 @@
       <c r="C33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="10"/>
@@ -1623,7 +1639,7 @@
       <c r="G33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="15" t="s">
         <v>65</v>
       </c>
       <c r="I33" s="10"/>
@@ -1642,12 +1658,12 @@
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="15" t="s">
         <v>66</v>
       </c>
       <c r="H34" s="10"/>
@@ -1694,13 +1710,13 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="3">
         <v>42646</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="10"/>
@@ -1722,7 +1738,7 @@
       <c r="C38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="10"/>
@@ -1730,7 +1746,7 @@
       <c r="G38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="14" t="s">
         <v>69</v>
       </c>
       <c r="I38" s="10"/>
@@ -1749,12 +1765,12 @@
       <c r="C39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H39" s="10"/>
@@ -1774,7 +1790,7 @@
       <c r="C40" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="10"/>
@@ -1782,7 +1798,7 @@
       <c r="G40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I40" s="10"/>
@@ -1801,12 +1817,12 @@
       <c r="C41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="15" t="s">
         <v>72</v>
       </c>
       <c r="H41" s="10"/>
@@ -1853,7 +1869,7 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="3">
@@ -1862,12 +1878,12 @@
       <c r="C44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="14" t="s">
         <v>75</v>
       </c>
       <c r="H44" s="10"/>
@@ -1887,7 +1903,7 @@
       <c r="C45" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E45" s="10"/>
@@ -1895,7 +1911,7 @@
       <c r="G45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I45" s="10"/>
@@ -1914,12 +1930,12 @@
       <c r="C46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="14" t="s">
         <v>78</v>
       </c>
       <c r="H46" s="10"/>
@@ -1941,7 +1957,7 @@
       <c r="C47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="10"/>
@@ -1949,7 +1965,7 @@
       <c r="G47" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="15" t="s">
         <v>79</v>
       </c>
       <c r="I47" s="10"/>
@@ -1968,12 +1984,12 @@
       <c r="C48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="15" t="s">
         <v>80</v>
       </c>
       <c r="H48" s="10"/>
@@ -2022,19 +2038,19 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B51" s="3">
         <v>42660</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="12" t="s">
         <v>82</v>
       </c>
       <c r="H51" s="10"/>
@@ -2052,7 +2068,7 @@
         <v>42661</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E52" s="10"/>
@@ -2060,7 +2076,7 @@
       <c r="G52" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="12" t="s">
         <v>84</v>
       </c>
       <c r="I52" s="10"/>
@@ -2077,12 +2093,12 @@
         <v>42662</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H53" s="10"/>
@@ -2102,7 +2118,7 @@
         <v>42663</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E54" s="10"/>
@@ -2110,7 +2126,7 @@
       <c r="G54" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I54" s="10"/>
@@ -2127,17 +2143,17 @@
         <v>42664</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="12" t="s">
         <v>87</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="13" t="s">
         <v>88</v>
       </c>
       <c r="K55" s="10"/>
@@ -2181,19 +2197,19 @@
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B58" s="3">
         <v>42667</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="12" t="s">
         <v>90</v>
       </c>
       <c r="H58" s="10"/>
@@ -2211,7 +2227,7 @@
         <v>42668</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E59" s="10"/>
@@ -2219,7 +2235,7 @@
       <c r="G59" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I59" s="10"/>
@@ -2236,12 +2252,12 @@
         <v>42669</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="12" t="s">
         <v>92</v>
       </c>
       <c r="H60" s="10"/>
@@ -2261,7 +2277,7 @@
         <v>42670</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E61" s="10"/>
@@ -2269,7 +2285,7 @@
       <c r="G61" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="12" t="s">
         <v>93</v>
       </c>
       <c r="I61" s="10"/>
@@ -2286,12 +2302,12 @@
         <v>42671</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="12" t="s">
         <v>94</v>
       </c>
       <c r="H62" s="10"/>
@@ -2338,19 +2354,19 @@
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="3">
         <v>42674</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="12" t="s">
         <v>97</v>
       </c>
       <c r="H65" s="10"/>
@@ -2368,7 +2384,7 @@
         <v>42675</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E66" s="10"/>
@@ -2376,7 +2392,7 @@
       <c r="G66" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="12" t="s">
         <v>98</v>
       </c>
       <c r="I66" s="10"/>
@@ -2393,12 +2409,12 @@
         <v>42676</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="12" t="s">
         <v>99</v>
       </c>
       <c r="H67" s="10"/>
@@ -2418,7 +2434,7 @@
         <v>42677</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E68" s="10"/>
@@ -2426,7 +2442,7 @@
       <c r="G68" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="12" t="s">
         <v>100</v>
       </c>
       <c r="I68" s="10"/>
@@ -2443,12 +2459,12 @@
         <v>42678</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H69" s="10"/>
@@ -2495,19 +2511,19 @@
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B72" s="3">
         <v>42681</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="19" t="s">
         <v>103</v>
       </c>
       <c r="H72" s="10"/>
@@ -2525,7 +2541,7 @@
         <v>42682</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E73" s="10"/>
@@ -2533,7 +2549,7 @@
       <c r="G73" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="12" t="s">
         <v>104</v>
       </c>
       <c r="I73" s="10"/>
@@ -2550,7 +2566,7 @@
         <v>42683</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E74" s="10"/>
@@ -2559,7 +2575,7 @@
         <v>55</v>
       </c>
       <c r="H74" s="10"/>
-      <c r="I74" s="16" t="s">
+      <c r="I74" s="18" t="s">
         <v>105</v>
       </c>
       <c r="J74" s="10"/>
@@ -2575,7 +2591,7 @@
         <v>42684</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E75" s="10"/>
@@ -2583,7 +2599,7 @@
       <c r="G75" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="12" t="s">
         <v>106</v>
       </c>
       <c r="I75" s="10"/>
@@ -2600,12 +2616,12 @@
         <v>42685</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="12" t="s">
         <v>107</v>
       </c>
       <c r="H76" s="10"/>
@@ -2652,13 +2668,13 @@
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B79" s="3">
         <v>42688</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D79" s="10"/>
@@ -2775,7 +2791,7 @@
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B86" s="3">
@@ -2865,7 +2881,7 @@
         <v>115</v>
       </c>
       <c r="I89" s="10"/>
-      <c r="J89" s="19" t="s">
+      <c r="J89" s="9" t="s">
         <v>116</v>
       </c>
       <c r="K89" s="10"/>
@@ -2932,19 +2948,19 @@
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B93" s="3">
         <v>42702</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H93" s="10"/>
@@ -2962,7 +2978,7 @@
         <v>42703</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E94" s="10"/>
@@ -2970,7 +2986,7 @@
       <c r="G94" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H94" s="19" t="s">
+      <c r="H94" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I94" s="10"/>
@@ -2987,12 +3003,12 @@
         <v>42704</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="19" t="s">
+      <c r="G95" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H95" s="10"/>
@@ -3010,7 +3026,7 @@
         <v>42705</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E96" s="10"/>
@@ -3018,7 +3034,7 @@
       <c r="G96" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I96" s="10"/>
@@ -3035,12 +3051,12 @@
         <v>42706</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="19" t="s">
+      <c r="G97" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H97" s="10"/>
@@ -3087,19 +3103,19 @@
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="3">
         <v>42709</v>
       </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="19" t="s">
+      <c r="G100" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H100" s="10"/>
@@ -3117,7 +3133,7 @@
         <v>42710</v>
       </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E101" s="10"/>
@@ -3125,7 +3141,7 @@
       <c r="G101" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="H101" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I101" s="10"/>
@@ -3142,12 +3158,12 @@
         <v>42711</v>
       </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H102" s="10"/>
@@ -3165,7 +3181,7 @@
         <v>42712</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E103" s="10"/>
@@ -3173,7 +3189,7 @@
       <c r="G103" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I103" s="10"/>
@@ -3190,12 +3206,12 @@
         <v>42713</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="19" t="s">
+      <c r="G104" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H104" s="10"/>
@@ -3209,36 +3225,100 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C16:K20"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="C79:K83"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D68:E68"/>
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="D94:E94"/>
@@ -3263,109 +3343,45 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G51:K51"/>
     <mergeCell ref="J89:K89"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="G88:K88"/>
     <mergeCell ref="G86:K86"/>
     <mergeCell ref="H87:K87"/>
-    <mergeCell ref="D89:E89"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="G39:K39"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="C79:K83"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C16:K20"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="H94:K94"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
